--- a/Final Report/Give Up Steps.xlsx
+++ b/Final Report/Give Up Steps.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,12 +217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -232,6 +226,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -266,6 +266,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect of No.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Steps to give up on non-smoking percentage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -280,7 +310,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -306,7 +336,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -315,8 +345,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -325,6 +355,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -367,36 +398,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>Sheet1!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>32.1</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.6</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.9</c:v>
+                  <c:v>54.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.3</c:v>
+                  <c:v>86.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.8</c:v>
+                  <c:v>87.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.12</c:v>
+                  <c:v>93.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.1</c:v>
+                  <c:v>71.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>16.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>61.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,11 +442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376638984"/>
-        <c:axId val="376638592"/>
+        <c:axId val="362144472"/>
+        <c:axId val="362143688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376638984"/>
+        <c:axId val="362144472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,6 +466,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Steps 'Giving up' required to become a non-smoker</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -443,9 +535,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -472,12 +564,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376638592"/>
+        <c:crossAx val="362143688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376638592"/>
+        <c:axId val="362143688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,6 +589,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>% Non-smokers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -505,9 +653,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -534,7 +682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376638984"/>
+        <c:crossAx val="362144472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -552,7 +700,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -624,7 +772,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -635,7 +783,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -651,25 +799,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -681,7 +829,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -689,11 +837,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -725,35 +873,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -765,22 +923,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -810,15 +972,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -828,7 +988,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -837,7 +997,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -847,65 +1043,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -918,54 +1174,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -975,8 +1194,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -986,66 +1205,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1054,14 +1214,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1075,27 +1234,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1112,9 +1270,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1127,14 +1285,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1146,13 +1298,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1439,29 +1591,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1634,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -1505,7 +1657,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>250</v>
       </c>
       <c r="B4" s="1">
@@ -1528,7 +1680,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>500</v>
       </c>
       <c r="B5" s="1">
@@ -1551,7 +1703,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>750</v>
       </c>
       <c r="B6" s="1">
@@ -1574,7 +1726,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>1000</v>
       </c>
       <c r="B7" s="1">
@@ -1597,7 +1749,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>1250</v>
       </c>
       <c r="B8" s="1">
@@ -1620,7 +1772,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>1500</v>
       </c>
       <c r="B9" s="1">
@@ -1643,7 +1795,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>1750</v>
       </c>
       <c r="B10" s="1">
@@ -1666,7 +1818,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>2000</v>
       </c>
       <c r="B11" s="4">
